--- a/Documents/BOM.xlsx
+++ b/Documents/BOM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\Documents\greenhouse_remodel\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA570F2-5FA2-4A09-8F71-300D87341F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="15255" windowHeight="7440"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="15255" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Supplier</t>
   </si>
@@ -126,16 +139,67 @@
   </si>
   <si>
     <t>Attach new roofs to orginal building and rafters for south side</t>
+  </si>
+  <si>
+    <t>Stainless</t>
+  </si>
+  <si>
+    <t>33.8x35</t>
+  </si>
+  <si>
+    <t>Fridge</t>
+  </si>
+  <si>
+    <t>28.41Dx29.89W</t>
+  </si>
+  <si>
+    <t>25cft Kenmore</t>
+  </si>
+  <si>
+    <t>Oven/Stove</t>
+  </si>
+  <si>
+    <t>5.4cft Kenmore Electric</t>
+  </si>
+  <si>
+    <t>22Dx33W</t>
+  </si>
+  <si>
+    <t>KOHLER Sink</t>
+  </si>
+  <si>
+    <t>Sink</t>
+  </si>
+  <si>
+    <t>Waste King 1/3 HP</t>
+  </si>
+  <si>
+    <t>Disposal</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Dispenser</t>
+  </si>
+  <si>
+    <t>13 oz Chrome Kitchen Sink Soap Dispenser</t>
+  </si>
+  <si>
+    <t>Ufaucet faucet with spray handle</t>
+  </si>
+  <si>
+    <t>Kitchen Faucet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +264,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -246,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +350,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +402,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,27 +595,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.86328125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.73046875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -566,7 +674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -596,7 +704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -626,7 +734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -656,7 +764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -686,7 +794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -716,7 +824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -746,611 +854,755 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>899.99</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="3"/>
+        <v>899.99</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>579.99</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="3"/>
+        <v>579.99</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>185.92</v>
+      </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="3"/>
+        <v>185.92</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>55.87</v>
+      </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="3"/>
+        <v>55.87</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15.9</v>
+      </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="3"/>
+        <v>15.9</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>49.99</v>
+      </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>49.99</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G26" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G28" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G30" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G31" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G32" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G33" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G34" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G35" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G36" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:7">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G38" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:7">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G39" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:7">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G40" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:7">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G41" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:7">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G42" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:7">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:7">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G44" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:7">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G45" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:7">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G46" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:7">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G47" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:7">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G48" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:7">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G49" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:7">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G50" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:7">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G51" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G52" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G53" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G54" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G55" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G56" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:7">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G57" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:7">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G58" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="7:7">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G59" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:7">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G60" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="7:7">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G61" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G62" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G63" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="7:7">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G64" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="7:7">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G65" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="7:7">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G66" s="1">
         <f t="shared" ref="G66:G100" si="1">E66*F66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="7:7">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G67" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="7:7">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G68" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="7:7">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G69" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="7:7">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G70" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="7:7">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G71" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="7:7">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G72" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="7:7">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G73" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="7:7">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G74" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="7:7">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G75" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="7:7">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G76" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="7:7">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G77" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="7:7">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G78" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="7:7">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G79" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="7:7">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G80" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:7">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G81" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:7">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G82" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:7">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G83" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:7">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G84" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:7">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G85" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:7">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G86" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:7">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G87" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:7">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G88" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:7">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G89" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:7">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G90" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:7">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G91" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:7">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G92" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:7">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G93" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:7">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G94" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:7">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G95" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:7">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G96" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="7:7">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G97" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="7:7">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G98" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="7:7">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G99" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="7:7">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G100" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
-    <hyperlink ref="I5" r:id="rId3"/>
-    <hyperlink ref="I6" r:id="rId4"/>
-    <hyperlink ref="I2" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{66FBCCDB-726A-4B14-9805-5B8E9B4DBCC9}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{A14E4171-3387-4209-913D-0485DA8E665D}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{D9D6E3D5-381E-4E74-BE2E-996E34E81AF0}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{BCDD4973-1265-42BF-9D2C-7BDDE5776F64}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{AB44EA0B-11F8-43E8-8073-71ACAD2DE64F}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{CF818659-FEB9-470F-BC56-3A5E86BBC758}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <f>SUM(BOM!G:G)</f>
-        <v>2248.5099999999998</v>
+        <v>4036.1699999999996</v>
       </c>
     </row>
   </sheetData>
